--- a/Covariance-001.xlsx
+++ b/Covariance-001.xlsx
@@ -81,10 +81,10 @@
     </r>
   </si>
   <si>
-    <t>(xi-xbar)</t>
+    <t xml:space="preserve">covarinace = </t>
   </si>
   <si>
-    <t xml:space="preserve">covarinace = </t>
+    <t>(xi-xbar)*(yi-ybar)</t>
   </si>
 </sst>
 </file>
@@ -150,16 +150,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,11 +330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134389120"/>
-        <c:axId val="134387584"/>
+        <c:axId val="134933888"/>
+        <c:axId val="144901248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134389120"/>
+        <c:axId val="134933888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,12 +344,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134387584"/>
+        <c:crossAx val="144901248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134387584"/>
+        <c:axId val="144901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134389120"/>
+        <c:crossAx val="134933888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -702,69 +702,69 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -780,9 +780,9 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -985,24 +985,24 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <f>SUM(A7:A16)/10</f>
         <v>21.3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <f>SUM(B7:B16)/10</f>
         <v>41.2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <f>SUM(E7:E16)</f>
         <v>962.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
         <f>E17/(10-1)</f>
         <v>106.93333333333334</v>
       </c>
